--- a/Scenarios/d_Multi-Energy-System/Results/EnergySystemSize.xlsx
+++ b/Scenarios/d_Multi-Energy-System/Results/EnergySystemSize.xlsx
@@ -1,37 +1,164 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Documenti\GitHub\MicroGridsPy-MultiEnergy_Paper\Scenarios\d_Multi-Energy-System\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B594812-59D1-4FDB-A3BF-AC2B6CFFD487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Size" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Size" sheetId="1" r:id="rId1"/>
+    <sheet name="Cost" sheetId="2" r:id="rId2"/>
+    <sheet name="Indicators" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="38">
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Class1</t>
+  </si>
+  <si>
+    <t>Class2</t>
+  </si>
+  <si>
+    <t>Class3</t>
+  </si>
+  <si>
+    <t>Class4</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Battery Storage System</t>
+  </si>
+  <si>
+    <t>Genset</t>
+  </si>
+  <si>
+    <t>Solar collector</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>NG Boiler</t>
+  </si>
+  <si>
+    <t>Electric resistance</t>
+  </si>
+  <si>
+    <t>Cost item</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Net Present Cost</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>MUSD</t>
+  </si>
+  <si>
+    <t>Investment Cost</t>
+  </si>
+  <si>
+    <t>Fixed Cost</t>
+  </si>
+  <si>
+    <t>Fuel cost</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Boiler</t>
+  </si>
+  <si>
+    <t>Electric lost load cost</t>
+  </si>
+  <si>
+    <t>Thermal lost load cost</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>Thermal</t>
+  </si>
+  <si>
+    <t>Total Primary Energy Supply</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t>Fossil Primary Energy Supply</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Renewable Primary Energy Supply</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levelized Cost of Energy </t>
+  </si>
+  <si>
+    <t>USD/kWh</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +173,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,206 +500,896 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>EE components</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>RES</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2032.767216984</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Battery</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>kWh</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19597.6363464</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Genset</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>279.393742994</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Th Components</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Class1</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Class2</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>Class3</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>Class4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2139.8164009375</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7201.641161961001</v>
-      </c>
-      <c r="E8" t="n">
-        <v>444.8803653181</v>
-      </c>
-      <c r="F8" t="n">
-        <v>163.7135279627225</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>NG Boiler</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2250.38056543</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2352.41127905</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2216.9730776</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1836.1378784</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Tank</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>172.728905744</v>
-      </c>
-      <c r="D10" t="n">
-        <v>168.928964372</v>
-      </c>
-      <c r="E10" t="n">
-        <v>164.207843733</v>
-      </c>
-      <c r="F10" t="n">
-        <v>175.243956489</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Electric resistance</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>2460.69404593</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2401.39195165</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2512.07470549</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2476.4910161</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>3.3729647079043729E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>5.3463628033473837E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>175.96720730165009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>4.0992836660573758E-7</v>
+      </c>
+      <c r="D5">
+        <v>2.2663950140492498E-6</v>
+      </c>
+      <c r="E5">
+        <v>7.6457454082712688E-8</v>
+      </c>
+      <c r="F5">
+        <v>4.7692863953570931E-6</v>
+      </c>
+      <c r="G5">
+        <v>7.5220672300947943E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>24.621059684247321</v>
+      </c>
+      <c r="D6">
+        <v>52.152838320285028</v>
+      </c>
+      <c r="E6">
+        <v>4.1327158504896824</v>
+      </c>
+      <c r="F6">
+        <v>9.2853236000172788E-3</v>
+      </c>
+      <c r="G6">
+        <v>80.915899178622041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>209.6355613917718</v>
+      </c>
+      <c r="D7">
+        <v>962.03474979954922</v>
+      </c>
+      <c r="E7">
+        <v>34.663884275702721</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1206.3341954670241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>12.823635252475439</v>
+      </c>
+      <c r="D8">
+        <v>27.110914171259122</v>
+      </c>
+      <c r="E8">
+        <v>11.05977032099255</v>
+      </c>
+      <c r="F8">
+        <v>5.3607777265210401E-3</v>
+      </c>
+      <c r="G8">
+        <v>50.99968052245363</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>0.4418919234033053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>6.7459294158087464E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>2.9404995418410609E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>3.5193441460330023E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1.721699139744098E-10</v>
+      </c>
+      <c r="F6">
+        <v>9.5188590590068509E-10</v>
+      </c>
+      <c r="G6">
+        <v>3.2112130714739329E-11</v>
+      </c>
+      <c r="H6">
+        <v>2.003100286049979E-9</v>
+      </c>
+      <c r="I6">
+        <v>3.1592682366398129E-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2.0963556139177181E-2</v>
+      </c>
+      <c r="F7">
+        <v>9.620347497995492E-2</v>
+      </c>
+      <c r="G7">
+        <v>3.4663884275702721E-3</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.1206334195467024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1.2823635252475439E-3</v>
+      </c>
+      <c r="F9">
+        <v>2.711091417125912E-3</v>
+      </c>
+      <c r="G9">
+        <v>1.1059770320992551E-3</v>
+      </c>
+      <c r="H9">
+        <v>5.3607777265210397E-7</v>
+      </c>
+      <c r="I9">
+        <v>5.0999680522453624E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>1.8832752929565929E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>8.2090543715473278E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>4.9125135093344097E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>3.6048777550794547E-11</v>
+      </c>
+      <c r="F13">
+        <v>1.9930499169936631E-10</v>
+      </c>
+      <c r="G13">
+        <v>6.7236082663649017E-12</v>
+      </c>
+      <c r="H13">
+        <v>4.194072875849921E-10</v>
+      </c>
+      <c r="I13">
+        <v>6.6148466510151788E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>4.3893300199192497E-3</v>
+      </c>
+      <c r="F14">
+        <v>2.0142994726019828E-2</v>
+      </c>
+      <c r="G14">
+        <v>7.2578920698480669E-4</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2.5258113952923891E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2.6850009036870641E-4</v>
+      </c>
+      <c r="F16">
+        <v>5.6764581662256371E-4</v>
+      </c>
+      <c r="G16">
+        <v>2.315684493654327E-4</v>
+      </c>
+      <c r="H16">
+        <v>1.122434688509715E-7</v>
+      </c>
+      <c r="I16">
+        <v>1.067826599825554E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>9.1960337889267829E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2.9456922166157411E-2</v>
+      </c>
+      <c r="F18">
+        <v>8.3135256452082168E-2</v>
+      </c>
+      <c r="G18">
+        <v>9.5687404422384564E-4</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.1135490526624634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A18"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>3889.6005117539262</v>
+      </c>
+      <c r="D2">
+        <v>2738.048394688029</v>
+      </c>
+      <c r="E2">
+        <v>6627.6489064419548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>0.95873692331800464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1.5421232190160231E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>0.22968851616001651</v>
+      </c>
+      <c r="D5">
+        <v>0.95390050558167339</v>
+      </c>
+      <c r="E5">
+        <v>0.52887869702829116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>5.4188823941997085E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Scenarios/d_Multi-Energy-System/Results/EnergySystemSize.xlsx
+++ b/Scenarios/d_Multi-Energy-System/Results/EnergySystemSize.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Documenti\GitHub\MicroGridsPy-MultiEnergy_Paper\Scenarios\d_Multi-Energy-System\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B594812-59D1-4FDB-A3BF-AC2B6CFFD487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="17895" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -141,8 +135,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,9 +202,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -500,19 +491,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -555,10 +546,10 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>3.3729647079043729E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>324.32147417366781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -578,10 +569,10 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>5.3463628033473837E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1620.4900854811219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -601,10 +592,10 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>175.96720730165009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31.04291406065888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -612,22 +603,22 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.0992836660573758E-7</v>
+        <v>390.77638410890518</v>
       </c>
       <c r="D5">
-        <v>2.2663950140492498E-6</v>
+        <v>1516.922730424006</v>
       </c>
       <c r="E5">
-        <v>7.6457454082712688E-8</v>
+        <v>27.568091598274311</v>
       </c>
       <c r="F5">
-        <v>4.7692863953570931E-6</v>
+        <v>10.32167278601939</v>
       </c>
       <c r="G5">
-        <v>7.5220672300947943E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1945.588878917205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -635,22 +626,22 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>24.621059684247321</v>
+        <v>2006.7504510110241</v>
       </c>
       <c r="D6">
-        <v>52.152838320285028</v>
+        <v>7887.7237399525038</v>
       </c>
       <c r="E6">
-        <v>4.1327158504896824</v>
+        <v>141.5635668977603</v>
       </c>
       <c r="F6">
-        <v>9.2853236000172788E-3</v>
+        <v>89.020267054069436</v>
       </c>
       <c r="G6">
-        <v>80.915899178622041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10125.058024915361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -658,22 +649,22 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>209.6355613917718</v>
+        <v>0.24258851556407399</v>
       </c>
       <c r="D7">
-        <v>962.03474979954922</v>
+        <v>0.35800187949359807</v>
       </c>
       <c r="E7">
-        <v>34.663884275702721</v>
+        <v>9.2655023476293369E-2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>5.35342182606178E-2</v>
       </c>
       <c r="G7">
-        <v>1206.3341954670241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.74677963679458326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -681,19 +672,19 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>12.823635252475439</v>
+        <v>12.154954848451959</v>
       </c>
       <c r="D8">
-        <v>27.110914171259122</v>
+        <v>108.6883046043409</v>
       </c>
       <c r="E8">
-        <v>11.05977032099255</v>
+        <v>6.7223635332027314</v>
       </c>
       <c r="F8">
-        <v>5.3607777265210401E-3</v>
+        <v>5.153234468009928</v>
       </c>
       <c r="G8">
-        <v>50.99968052245363</v>
+        <v>132.7188574540055</v>
       </c>
     </row>
   </sheetData>
@@ -702,21 +693,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -745,7 +736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -771,10 +762,10 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>0.4418919234033053</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3.2597708924093181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -800,10 +791,10 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>6.7459294158087464E-7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.64864294834733571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -827,10 +818,10 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>2.9404995418410609E-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.89126954701461714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -854,10 +845,10 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>3.5193441460330023E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6.2085828121317766E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -869,22 +860,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1.721699139744098E-10</v>
+        <v>0.16412608132574019</v>
       </c>
       <c r="F6">
-        <v>9.5188590590068509E-10</v>
+        <v>0.63710754677808223</v>
       </c>
       <c r="G6">
-        <v>3.2112130714739329E-11</v>
+        <v>1.1578598471275211E-2</v>
       </c>
       <c r="H6">
-        <v>2.003100286049979E-9</v>
+        <v>4.335102570128143E-3</v>
       </c>
       <c r="I6">
-        <v>3.1592682366398129E-9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.81714732914522581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -896,22 +887,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2.0963556139177181E-2</v>
+        <v>2.42588515564074E-5</v>
       </c>
       <c r="F7">
-        <v>9.620347497995492E-2</v>
+        <v>3.5800187949359807E-5</v>
       </c>
       <c r="G7">
-        <v>3.4663884275702721E-3</v>
+        <v>9.2655023476293368E-6</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5.3534218260617797E-6</v>
       </c>
       <c r="I7">
-        <v>0.1206334195467024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7.4677963679458312E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -938,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
@@ -950,22 +941,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1.2823635252475439E-3</v>
+        <v>1.2154954848451959E-3</v>
       </c>
       <c r="F9">
-        <v>2.711091417125912E-3</v>
+        <v>1.086883046043409E-2</v>
       </c>
       <c r="G9">
-        <v>1.1059770320992551E-3</v>
+        <v>6.7223635332027299E-4</v>
       </c>
       <c r="H9">
-        <v>5.3607777265210397E-7</v>
+        <v>5.1532344680099273E-4</v>
       </c>
       <c r="I9">
-        <v>5.0999680522453624E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.3271885745400549E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -991,10 +982,10 @@
         <v>9</v>
       </c>
       <c r="I10">
-        <v>1.8832752929565929E-7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.18108301514545369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -1018,10 +1009,10 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>8.2090543715473278E-7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.24881759262463499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -1045,10 +1036,10 @@
         <v>9</v>
       </c>
       <c r="I12">
-        <v>4.9125135093344097E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8.6663155613235579E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1060,22 +1051,22 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>3.6048777550794547E-11</v>
+        <v>3.4364567301082699E-2</v>
       </c>
       <c r="F13">
-        <v>1.9930499169936631E-10</v>
+        <v>0.13339698963402619</v>
       </c>
       <c r="G13">
-        <v>6.7236082663649017E-12</v>
+        <v>2.4243162525074431E-3</v>
       </c>
       <c r="H13">
-        <v>4.194072875849921E-10</v>
+        <v>9.0767977170305681E-4</v>
       </c>
       <c r="I13">
-        <v>6.6148466510151788E-10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.17109355295931941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>14</v>
@@ -1087,22 +1078,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>4.3893300199192497E-3</v>
+        <v>5.0792959304414643E-6</v>
       </c>
       <c r="F14">
-        <v>2.0142994726019828E-2</v>
+        <v>7.4958102834094883E-6</v>
       </c>
       <c r="G14">
-        <v>7.2578920698480669E-4</v>
+        <v>1.9400023227966521E-6</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.1208945168663641E-6</v>
       </c>
       <c r="I14">
-        <v>2.5258113952923891E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.5636003053513968E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1129,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -1141,22 +1132,22 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>2.6850009036870641E-4</v>
+        <v>2.544993218367545E-4</v>
       </c>
       <c r="F16">
-        <v>5.6764581662256371E-4</v>
+        <v>2.2757056820259789E-3</v>
       </c>
       <c r="G16">
-        <v>2.315684493654327E-4</v>
+        <v>1.407522266985725E-4</v>
       </c>
       <c r="H16">
-        <v>1.122434688509715E-7</v>
+        <v>1.0789794727549689E-4</v>
       </c>
       <c r="I16">
-        <v>1.067826599825554E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2.7788551778368028E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1182,10 +1173,10 @@
         <v>9</v>
       </c>
       <c r="I17">
-        <v>9.1960337889267829E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.27047774095213811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>25</v>
@@ -1197,22 +1188,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2.9456922166157411E-2</v>
+        <v>6.3733969463789121E-5</v>
       </c>
       <c r="F18">
-        <v>8.3135256452082168E-2</v>
+        <v>1.2505638688404221E-4</v>
       </c>
       <c r="G18">
-        <v>9.5687404422384564E-4</v>
+        <v>2.743919033809813E-5</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.983410481426272E-6</v>
       </c>
       <c r="I18">
-        <v>0.1135490526624634</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2.2321295716735569E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -1241,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1281,19 +1272,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1304,7 +1295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1312,16 +1303,16 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>3889.6005117539262</v>
+        <v>63809.819091240512</v>
       </c>
       <c r="D2">
-        <v>2738.048394688029</v>
+        <v>275547.72204025189</v>
       </c>
       <c r="E2">
-        <v>6627.6489064419548</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>339357.54113149241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1335,10 +1326,10 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>0.95873692331800464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.3725797980282059E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1352,10 +1343,10 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>1.5421232190160231E-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.95367848453504889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1363,16 +1354,16 @@
         <v>33</v>
       </c>
       <c r="C5">
-        <v>0.22968851616001651</v>
+        <v>0.74869690559204538</v>
       </c>
       <c r="D5">
-        <v>0.95390050558167339</v>
+        <v>0.53330798234482724</v>
       </c>
       <c r="E5">
-        <v>0.52887869702829116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.5738078285566921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1386,7 +1377,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>5.4188823941997085E-4</v>
+        <v>7.1956881575918508E-5</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/d_Multi-Energy-System/Results/EnergySystemSize.xlsx
+++ b/Scenarios/d_Multi-Energy-System/Results/EnergySystemSize.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Documenti\GitHub\MicroGridsPy-MultiEnergy_Paper\Scenarios\d_Multi-Energy-System\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A652271-5925-47EA-BB26-FC82128C5D6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="17895" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -141,8 +135,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,9 +202,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -500,19 +491,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -555,10 +546,10 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>6.2679033298017454E-8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>321.27430408542767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -578,10 +569,10 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>1.0721393893619151E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1563.34285738159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -601,10 +592,10 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>169.89180032603929</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41.727290178376848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -612,22 +603,22 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>1.0016819677186251E-6</v>
+        <v>373.54426676601207</v>
       </c>
       <c r="D5">
-        <v>3.074050586409909E-7</v>
+        <v>1300.4665685661851</v>
       </c>
       <c r="E5">
-        <v>1.1747791841264871E-6</v>
+        <v>23.820181053154339</v>
       </c>
       <c r="F5">
-        <v>7.0127826214672094E-6</v>
+        <v>5.4190855648690537</v>
       </c>
       <c r="G5">
-        <v>9.4966488319533123E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1703.2501019502199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -635,22 +626,22 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>293.88298730233828</v>
+        <v>1888.6972656040009</v>
       </c>
       <c r="D6">
-        <v>1030.529749427684</v>
+        <v>6482.1394777505348</v>
       </c>
       <c r="E6">
-        <v>88.645045962226405</v>
+        <v>119.0076541188225</v>
       </c>
       <c r="F6">
-        <v>9.8392783978136465E-3</v>
+        <v>43.856143302712887</v>
       </c>
       <c r="G6">
-        <v>1413.067621970647</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8533.7005407760716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -658,22 +649,22 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>107.70725207463011</v>
+        <v>0.2303885826559503</v>
       </c>
       <c r="D7">
-        <v>724.7368968501429</v>
+        <v>0.33781540548634859</v>
       </c>
       <c r="E7">
-        <v>1.3633487009419401E-2</v>
+        <v>9.507690682051706E-2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.35111260183766341</v>
       </c>
       <c r="G7">
-        <v>832.45778241178243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.0143934968004791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -681,19 +672,19 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>37.093456562402388</v>
+        <v>14.731719124405579</v>
       </c>
       <c r="D8">
-        <v>24.086158782671561</v>
+        <v>179.86117105003339</v>
       </c>
       <c r="E8">
-        <v>4.7200079197234137</v>
+        <v>8.9565539283759108</v>
       </c>
       <c r="F8">
-        <v>2.5985406192663521E-3</v>
+        <v>25.881237177349391</v>
       </c>
       <c r="G8">
-        <v>65.90222180541663</v>
+        <v>229.43068128016429</v>
       </c>
     </row>
   </sheetData>
@@ -702,12 +693,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -716,7 +707,7 @@
     <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -745,7 +736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -771,10 +762,10 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>0.2809412531479602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.0883559545571311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -800,10 +791,10 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>1.2535806659603489E-10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.64254860817085535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -827,10 +818,10 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>5.8967666414905354E-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.85983857155987464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -854,10 +845,10 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>3.3978360065207859E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.3454580356753707E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -869,22 +860,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>4.2070642644182258E-10</v>
+        <v>0.15688859204172509</v>
       </c>
       <c r="F6">
-        <v>1.2911012462921621E-10</v>
+        <v>0.5461959587977977</v>
       </c>
       <c r="G6">
-        <v>4.9340725733312437E-10</v>
+        <v>1.0004476042324821E-2</v>
       </c>
       <c r="H6">
-        <v>2.9453687010162279E-9</v>
+        <v>2.2760159372450031E-3</v>
       </c>
       <c r="I6">
-        <v>3.9885925094203904E-9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.71536504281909263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -896,22 +887,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1.077072520746301E-2</v>
+        <v>2.303885826559503E-5</v>
       </c>
       <c r="F7">
-        <v>7.2473689685014289E-2</v>
+        <v>3.3781540548634859E-5</v>
       </c>
       <c r="G7">
-        <v>1.36334870094194E-6</v>
+        <v>9.5076906820517066E-6</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.5111260183766333E-5</v>
       </c>
       <c r="I7">
-        <v>8.3245778241178237E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.014393496800479E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -923,22 +914,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1.0579787542884181E-2</v>
+        <v>6.7993101561744027E-2</v>
       </c>
       <c r="F8">
-        <v>3.7099070979396638E-2</v>
+        <v>0.23335702119901919</v>
       </c>
       <c r="G8">
-        <v>3.19122165464015E-3</v>
+        <v>4.2842755482776114E-3</v>
       </c>
       <c r="H8">
-        <v>3.5421402232129132E-7</v>
+        <v>1.5788211588976639E-3</v>
       </c>
       <c r="I8">
-        <v>5.0870434390943277E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.3072132194679385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
@@ -950,22 +941,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>3.709345656240239E-3</v>
+        <v>1.4731719124405579E-3</v>
       </c>
       <c r="F9">
-        <v>2.4086158782671559E-3</v>
+        <v>1.7986117105003339E-2</v>
       </c>
       <c r="G9">
-        <v>4.7200079197234142E-4</v>
+        <v>8.956553928375911E-4</v>
       </c>
       <c r="H9">
-        <v>2.598540619266352E-7</v>
+        <v>2.5881237177349391E-3</v>
       </c>
       <c r="I9">
-        <v>6.590222180541663E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.2943068128016431E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -991,10 +982,10 @@
         <v>9</v>
       </c>
       <c r="I10">
-        <v>3.4996474917135847E-11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.17938164538988791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -1018,10 +1009,10 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>1.6462127365615761E-7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.24004294114833499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -1045,10 +1036,10 @@
         <v>9</v>
       </c>
       <c r="I12">
-        <v>4.7429050959257112E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.164909529750042E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1060,22 +1051,22 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>8.8087122952533652E-11</v>
+        <v>3.2849188480224972E-2</v>
       </c>
       <c r="F13">
-        <v>2.703295863298018E-11</v>
+        <v>0.114362005319764</v>
       </c>
       <c r="G13">
-        <v>1.033091557691848E-10</v>
+        <v>2.0947279523856042E-3</v>
       </c>
       <c r="H13">
-        <v>6.1669857791639576E-10</v>
+        <v>4.7655011453396723E-4</v>
       </c>
       <c r="I13">
-        <v>8.3512781527109436E-10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.14978247186690849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>14</v>
@@ -1087,22 +1078,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2.2551644947808929E-3</v>
+        <v>4.8238548621460264E-6</v>
       </c>
       <c r="F14">
-        <v>1.517447420069404E-2</v>
+        <v>7.0731477553150647E-6</v>
       </c>
       <c r="G14">
-        <v>2.8545669164779648E-7</v>
+        <v>1.9907114925432721E-6</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.3515632242273797E-6</v>
       </c>
       <c r="I14">
-        <v>1.7429924152166581E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.1239277334231739E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1114,22 +1105,22 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>2.2151861429447321E-3</v>
+        <v>1.423633279826232E-2</v>
       </c>
       <c r="F15">
-        <v>7.767769212431541E-3</v>
+        <v>4.8860077541595527E-2</v>
       </c>
       <c r="G15">
-        <v>6.6817504224634772E-4</v>
+        <v>8.9703765681803924E-4</v>
       </c>
       <c r="H15">
-        <v>7.4165004798284948E-8</v>
+        <v>3.3057211585787842E-4</v>
       </c>
       <c r="I15">
-        <v>1.065120456262742E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.432402011253377E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -1141,22 +1132,22 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>7.766593670987447E-4</v>
+        <v>3.0845137422524119E-4</v>
       </c>
       <c r="F16">
-        <v>5.0431376769967992E-4</v>
+        <v>3.7659165852703918E-3</v>
       </c>
       <c r="G16">
-        <v>9.8827089825570777E-5</v>
+        <v>1.875314988155875E-4</v>
       </c>
       <c r="H16">
-        <v>5.4408003453239671E-8</v>
+        <v>5.4189895331207237E-4</v>
       </c>
       <c r="I16">
-        <v>1.3798546326274489E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.8037984116232916E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1182,10 +1173,10 @@
         <v>9</v>
       </c>
       <c r="I17">
-        <v>1.4419316495745359E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.46592087862767151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>25</v>
@@ -1197,22 +1188,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>3.0095936580087088E-3</v>
+        <v>9.1567555003887465E-5</v>
       </c>
       <c r="F18">
-        <v>1.1936341576923731E-2</v>
+        <v>1.6058293988372349E-4</v>
       </c>
       <c r="G18">
-        <v>1.2782341218603541E-7</v>
+        <v>3.7486549395505672E-5</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.5689414465042159E-5</v>
       </c>
       <c r="I18">
-        <v>1.494606305834462E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.1532645874815881E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -1241,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1281,19 +1272,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1304,7 +1295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1312,16 +1303,16 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>9.269847497996393</v>
+        <v>1086.4319249187599</v>
       </c>
       <c r="D2">
-        <v>6.3016435828342514</v>
+        <v>4064.750393294597</v>
       </c>
       <c r="E2">
-        <v>15.57149108083064</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5151.1823182133576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1335,10 +1326,10 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>0.99999999602868217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.3783615377350125E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1352,10 +1343,10 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>3.9713178831051098E-9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.93621638462264989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1363,16 +1354,16 @@
         <v>33</v>
       </c>
       <c r="C5">
-        <v>0.2324169249241341</v>
+        <v>0.73289166435918818</v>
       </c>
       <c r="D5">
-        <v>0.99339387167484638</v>
+        <v>0.60254540239181953</v>
       </c>
       <c r="E5">
-        <v>0.54037750932056572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.63003663286030165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1386,7 +1377,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>2.3919165746897222</v>
+        <v>9.0247245886914004E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/d_Multi-Energy-System/Results/EnergySystemSize.xlsx
+++ b/Scenarios/d_Multi-Energy-System/Results/EnergySystemSize.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Documenti\GitHub\MicroGridsPy-MultiEnergy_Paper\Scenarios\d_Multi-Energy-System\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B123BBA3-AF74-43D6-AB09-5E3B3AE922E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="17895" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="39">
   <si>
     <t>Component</t>
   </si>
@@ -85,6 +91,9 @@
   </si>
   <si>
     <t>Fixed Cost</t>
+  </si>
+  <si>
+    <t>Replacement Cost</t>
   </si>
   <si>
     <t>Fuel cost</t>
@@ -135,8 +144,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +211,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -491,19 +503,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -546,10 +558,10 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>321.27430408542767</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>6.2679033298017454E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -569,10 +581,10 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>1563.34285738159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1.0721393893619151E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -592,10 +604,10 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>41.727290178376848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>169.89180032603929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -603,22 +615,22 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>373.54426676601207</v>
+        <v>1.0016819677186251E-6</v>
       </c>
       <c r="D5">
-        <v>1300.4665685661851</v>
+        <v>3.074050586409909E-7</v>
       </c>
       <c r="E5">
-        <v>23.820181053154339</v>
+        <v>1.1747791841264871E-6</v>
       </c>
       <c r="F5">
-        <v>5.4190855648690537</v>
+        <v>7.0127826214672094E-6</v>
       </c>
       <c r="G5">
-        <v>1703.2501019502199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>9.4966488319533123E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -626,22 +638,22 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>1888.6972656040009</v>
+        <v>293.88298730233828</v>
       </c>
       <c r="D6">
-        <v>6482.1394777505348</v>
+        <v>1030.529749427684</v>
       </c>
       <c r="E6">
-        <v>119.0076541188225</v>
+        <v>88.645045962226405</v>
       </c>
       <c r="F6">
-        <v>43.856143302712887</v>
+        <v>9.8392783978136465E-3</v>
       </c>
       <c r="G6">
-        <v>8533.7005407760716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1413.067621970647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -649,22 +661,22 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.2303885826559503</v>
+        <v>107.70725207463011</v>
       </c>
       <c r="D7">
-        <v>0.33781540548634859</v>
+        <v>724.7368968501429</v>
       </c>
       <c r="E7">
-        <v>9.507690682051706E-2</v>
+        <v>1.3633487009419401E-2</v>
       </c>
       <c r="F7">
-        <v>0.35111260183766341</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1.0143934968004791</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>832.45778241178243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -672,19 +684,19 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>14.731719124405579</v>
+        <v>37.093456562402388</v>
       </c>
       <c r="D8">
-        <v>179.86117105003339</v>
+        <v>24.086158782671561</v>
       </c>
       <c r="E8">
-        <v>8.9565539283759108</v>
+        <v>4.7200079197234137</v>
       </c>
       <c r="F8">
-        <v>25.881237177349391</v>
+        <v>2.5985406192663521E-3</v>
       </c>
       <c r="G8">
-        <v>229.43068128016429</v>
+        <v>65.90222180541663</v>
       </c>
     </row>
   </sheetData>
@@ -693,21 +705,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -736,7 +748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -762,10 +774,10 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>4.0883559545571311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.2809412531479602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -791,10 +803,10 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>0.64254860817085535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>1.2535806659603489E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -818,10 +830,10 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>0.85983857155987464</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>5.8967666414905354E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -845,10 +857,10 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>8.3454580356753707E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>3.3978360065207859E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -860,22 +872,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>0.15688859204172509</v>
+        <v>4.2070642644182258E-10</v>
       </c>
       <c r="F6">
-        <v>0.5461959587977977</v>
+        <v>1.2911012462921621E-10</v>
       </c>
       <c r="G6">
-        <v>1.0004476042324821E-2</v>
+        <v>4.9340725733312437E-10</v>
       </c>
       <c r="H6">
-        <v>2.2760159372450031E-3</v>
+        <v>2.9453687010162279E-9</v>
       </c>
       <c r="I6">
-        <v>0.71536504281909263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>3.9885925094203904E-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -887,22 +899,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2.303885826559503E-5</v>
+        <v>1.077072520746301E-2</v>
       </c>
       <c r="F7">
-        <v>3.3781540548634859E-5</v>
+        <v>7.2473689685014289E-2</v>
       </c>
       <c r="G7">
-        <v>9.5076906820517066E-6</v>
+        <v>1.36334870094194E-6</v>
       </c>
       <c r="H7">
-        <v>3.5111260183766333E-5</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.014393496800479E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>8.3245778241178237E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -914,22 +926,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>6.7993101561744027E-2</v>
+        <v>1.0579787542884181E-2</v>
       </c>
       <c r="F8">
-        <v>0.23335702119901919</v>
+        <v>3.7099070979396638E-2</v>
       </c>
       <c r="G8">
-        <v>4.2842755482776114E-3</v>
+        <v>3.19122165464015E-3</v>
       </c>
       <c r="H8">
-        <v>1.5788211588976639E-3</v>
+        <v>3.5421402232129132E-7</v>
       </c>
       <c r="I8">
-        <v>0.3072132194679385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>5.0870434390943277E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
@@ -941,22 +953,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1.4731719124405579E-3</v>
+        <v>3.709345656240239E-3</v>
       </c>
       <c r="F9">
-        <v>1.7986117105003339E-2</v>
+        <v>2.4086158782671559E-3</v>
       </c>
       <c r="G9">
-        <v>8.956553928375911E-4</v>
+        <v>4.7200079197234142E-4</v>
       </c>
       <c r="H9">
-        <v>2.5881237177349391E-3</v>
+        <v>2.598540619266352E-7</v>
       </c>
       <c r="I9">
-        <v>2.2943068128016431E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>6.590222180541663E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -982,10 +994,10 @@
         <v>9</v>
       </c>
       <c r="I10">
-        <v>0.17938164538988791</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>3.4996474917135847E-11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -1009,10 +1021,10 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>0.24004294114833499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>1.6462127365615761E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -1036,10 +1048,10 @@
         <v>9</v>
       </c>
       <c r="I12">
-        <v>1.164909529750042E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>4.7429050959257112E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1051,22 +1063,22 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>3.2849188480224972E-2</v>
+        <v>8.8087122952533652E-11</v>
       </c>
       <c r="F13">
-        <v>0.114362005319764</v>
+        <v>2.703295863298018E-11</v>
       </c>
       <c r="G13">
-        <v>2.0947279523856042E-3</v>
+        <v>1.033091557691848E-10</v>
       </c>
       <c r="H13">
-        <v>4.7655011453396723E-4</v>
+        <v>6.1669857791639576E-10</v>
       </c>
       <c r="I13">
-        <v>0.14978247186690849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>8.3512781527109436E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>14</v>
@@ -1078,22 +1090,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>4.8238548621460264E-6</v>
+        <v>2.2551644947808929E-3</v>
       </c>
       <c r="F14">
-        <v>7.0731477553150647E-6</v>
+        <v>1.517447420069404E-2</v>
       </c>
       <c r="G14">
-        <v>1.9907114925432721E-6</v>
+        <v>2.8545669164779648E-7</v>
       </c>
       <c r="H14">
-        <v>7.3515632242273797E-6</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.1239277334231739E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>1.7429924152166581E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1105,22 +1117,22 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1.423633279826232E-2</v>
+        <v>2.2151861429447321E-3</v>
       </c>
       <c r="F15">
-        <v>4.8860077541595527E-2</v>
+        <v>7.767769212431541E-3</v>
       </c>
       <c r="G15">
-        <v>8.9703765681803924E-4</v>
+        <v>6.6817504224634772E-4</v>
       </c>
       <c r="H15">
-        <v>3.3057211585787842E-4</v>
+        <v>7.4165004798284948E-8</v>
       </c>
       <c r="I15">
-        <v>6.432402011253377E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>1.065120456262742E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -1132,107 +1144,107 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>3.0845137422524119E-4</v>
+        <v>7.766593670987447E-4</v>
       </c>
       <c r="F16">
-        <v>3.7659165852703918E-3</v>
+        <v>5.0431376769967992E-4</v>
       </c>
       <c r="G16">
-        <v>1.875314988155875E-4</v>
+        <v>9.8827089825570777E-5</v>
       </c>
       <c r="H16">
-        <v>5.4189895331207237E-4</v>
+        <v>5.4408003453239671E-8</v>
       </c>
       <c r="I16">
-        <v>4.8037984116232916E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2" t="s">
+        <v>1.3798546326274489E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>2.8512730788516249E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17">
-        <v>0.46592087862767151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E18">
-        <v>9.1567555003887465E-5</v>
-      </c>
-      <c r="F18">
-        <v>1.6058293988372349E-4</v>
-      </c>
-      <c r="G18">
-        <v>3.7486549395505672E-5</v>
-      </c>
-      <c r="H18">
-        <v>2.5689414465042159E-5</v>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
       </c>
       <c r="I18">
-        <v>3.1532645874815881E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
+        <v>1.4419316495745359E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" t="s">
-        <v>9</v>
+      <c r="E19">
+        <v>3.0095936580087088E-3</v>
+      </c>
+      <c r="F19">
+        <v>1.1936341576923731E-2</v>
+      </c>
+      <c r="G19">
+        <v>1.2782341218603541E-7</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>1.494606305834462E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1240,24 +1252,53 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
-      <c r="F20">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
         <v>0</v>
       </c>
-      <c r="G20">
+      <c r="F21">
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="G21">
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
     </row>
@@ -1265,59 +1306,59 @@
   <mergeCells count="3">
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>1086.4319249187599</v>
+        <v>9.269847497996393</v>
       </c>
       <c r="D2">
-        <v>4064.750393294597</v>
+        <v>6.3016435828342514</v>
       </c>
       <c r="E2">
-        <v>5151.1823182133576</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>15.57149108083064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1326,16 +1367,16 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>6.3783615377350125E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.99999999602868217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -1343,32 +1384,32 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>0.93621638462264989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>3.9713178831051098E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>0.73289166435918818</v>
+        <v>0.2324169249241341</v>
       </c>
       <c r="D5">
-        <v>0.60254540239181953</v>
+        <v>0.99339387167484638</v>
       </c>
       <c r="E5">
-        <v>0.63003663286030165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.54037750932056572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1377,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>9.0247245886914004E-2</v>
+        <v>2.3919165746897222</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/d_Multi-Energy-System/Results/EnergySystemSize.xlsx
+++ b/Scenarios/d_Multi-Energy-System/Results/EnergySystemSize.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Documenti\GitHub\MicroGridsPy-MultiEnergy_Paper\Scenarios\d_Multi-Energy-System\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B123BBA3-AF74-43D6-AB09-5E3B3AE922E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="17895" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -144,8 +138,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,9 +205,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -503,19 +494,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -558,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>6.2679033298017454E-8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>195.4560998458297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -581,10 +572,10 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>1.0721393893619151E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>516.53642135558437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -604,10 +595,10 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>169.89180032603929</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100.9451392858868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -615,22 +606,22 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>1.0016819677186251E-6</v>
+        <v>371.81385888386171</v>
       </c>
       <c r="D5">
-        <v>3.074050586409909E-7</v>
+        <v>1337.1470847969431</v>
       </c>
       <c r="E5">
-        <v>1.1747791841264871E-6</v>
+        <v>26.896924790169631</v>
       </c>
       <c r="F5">
-        <v>7.0127826214672094E-6</v>
+        <v>5.1072725901669092</v>
       </c>
       <c r="G5">
-        <v>9.4966488319533123E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1740.9651410611409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -638,22 +629,22 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>293.88298730233828</v>
+        <v>1897.6263869653301</v>
       </c>
       <c r="D6">
-        <v>1030.529749427684</v>
+        <v>6718.0676865350006</v>
       </c>
       <c r="E6">
-        <v>88.645045962226405</v>
+        <v>133.7432264065381</v>
       </c>
       <c r="F6">
-        <v>9.8392783978136465E-3</v>
+        <v>51.305074254705097</v>
       </c>
       <c r="G6">
-        <v>1413.067621970647</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8800.742374161573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -661,22 +652,22 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>107.70725207463011</v>
+        <v>0.28050726667307091</v>
       </c>
       <c r="D7">
-        <v>724.7368968501429</v>
+        <v>0.49507006471808901</v>
       </c>
       <c r="E7">
-        <v>1.3633487009419401E-2</v>
+        <v>0.1133838690152333</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.34620475999856171</v>
       </c>
       <c r="G7">
-        <v>832.45778241178243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.235165960404955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -684,19 +675,19 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>37.093456562402388</v>
+        <v>14.707211338061191</v>
       </c>
       <c r="D8">
-        <v>24.086158782671561</v>
+        <v>146.01258264160171</v>
       </c>
       <c r="E8">
-        <v>4.7200079197234137</v>
+        <v>6.1334011570611349</v>
       </c>
       <c r="F8">
-        <v>2.5985406192663521E-3</v>
+        <v>23.10498665474374</v>
       </c>
       <c r="G8">
-        <v>65.90222180541663</v>
+        <v>189.95818179146781</v>
       </c>
     </row>
   </sheetData>
@@ -705,21 +696,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -748,7 +739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -774,10 +765,10 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>0.2809412531479602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4.3101027382668304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -803,10 +794,10 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>1.2535806659603489E-10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.39091219969165941</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -830,10 +821,10 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>5.8967666414905354E-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.28409503174557138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -857,10 +848,10 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>3.3978360065207859E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2.0189027857177352E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -872,22 +863,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>4.2070642644182258E-10</v>
+        <v>0.1561618207312219</v>
       </c>
       <c r="F6">
-        <v>1.2911012462921621E-10</v>
+        <v>0.56160177561471614</v>
       </c>
       <c r="G6">
-        <v>4.9340725733312437E-10</v>
+        <v>1.129670841187125E-2</v>
       </c>
       <c r="H6">
-        <v>2.9453687010162279E-9</v>
+        <v>2.1450544878701019E-3</v>
       </c>
       <c r="I6">
-        <v>3.9885925094203904E-9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.73120535924567931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -899,22 +890,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1.077072520746301E-2</v>
+        <v>2.8050726667307081E-5</v>
       </c>
       <c r="F7">
-        <v>7.2473689685014289E-2</v>
+        <v>4.9507006471808887E-5</v>
       </c>
       <c r="G7">
-        <v>1.36334870094194E-6</v>
+        <v>1.133838690152333E-5</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.4620475999856173E-5</v>
       </c>
       <c r="I7">
-        <v>8.3245778241178237E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.235165960404955E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -926,22 +917,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1.0579787542884181E-2</v>
+        <v>6.8314549930751867E-2</v>
       </c>
       <c r="F8">
-        <v>3.7099070979396638E-2</v>
+        <v>0.24185043671525999</v>
       </c>
       <c r="G8">
-        <v>3.19122165464015E-3</v>
+        <v>4.8147561506353713E-3</v>
       </c>
       <c r="H8">
-        <v>3.5421402232129132E-7</v>
+        <v>1.846982673169384E-3</v>
       </c>
       <c r="I8">
-        <v>5.0870434390943277E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.31682672546981672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
@@ -953,22 +944,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>3.709345656240239E-3</v>
+        <v>1.4707211338061191E-3</v>
       </c>
       <c r="F9">
-        <v>2.4086158782671559E-3</v>
+        <v>1.460125826416017E-2</v>
       </c>
       <c r="G9">
-        <v>4.7200079197234142E-4</v>
+        <v>6.1334011570611351E-4</v>
       </c>
       <c r="H9">
-        <v>2.598540619266352E-7</v>
+        <v>2.3104986654743742E-3</v>
       </c>
       <c r="I9">
-        <v>6.590222180541663E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.8995818179146771E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -994,10 +985,10 @@
         <v>9</v>
       </c>
       <c r="I10">
-        <v>3.4996474917135847E-11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.1091317803695632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -1021,10 +1012,10 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>1.6462127365615761E-7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7.9311407096009562E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -1048,10 +1039,10 @@
         <v>9</v>
       </c>
       <c r="I12">
-        <v>4.7429050959257112E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2.8181066691220499E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1063,22 +1054,22 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>8.8087122952533652E-11</v>
+        <v>3.2697017774566579E-2</v>
       </c>
       <c r="F13">
-        <v>2.703295863298018E-11</v>
+        <v>0.1175876610141957</v>
       </c>
       <c r="G13">
-        <v>1.033091557691848E-10</v>
+        <v>2.365294372257539E-3</v>
       </c>
       <c r="H13">
-        <v>6.1669857791639576E-10</v>
+        <v>4.4912952723584552E-4</v>
       </c>
       <c r="I13">
-        <v>8.3512781527109436E-10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.15309910268825569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>14</v>
@@ -1090,22 +1081,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2.2551644947808929E-3</v>
+        <v>5.8732352385225169E-6</v>
       </c>
       <c r="F14">
-        <v>1.517447420069404E-2</v>
+        <v>1.0365731284347661E-5</v>
       </c>
       <c r="G14">
-        <v>2.8545669164779648E-7</v>
+        <v>2.3740209759215481E-6</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.2488032851485034E-6</v>
       </c>
       <c r="I14">
-        <v>1.7429924152166581E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2.5861790783940231E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1117,22 +1108,22 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>2.2151861429447321E-3</v>
+        <v>1.430363736083619E-2</v>
       </c>
       <c r="F15">
-        <v>7.767769212431541E-3</v>
+        <v>5.0638421036829771E-2</v>
       </c>
       <c r="G15">
-        <v>6.6817504224634772E-4</v>
+        <v>1.008109195323012E-3</v>
       </c>
       <c r="H15">
-        <v>7.4165004798284948E-8</v>
+        <v>3.8671952600935391E-4</v>
       </c>
       <c r="I15">
-        <v>1.065120456262742E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6.6336887118998336E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -1144,22 +1135,22 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>7.766593670987447E-4</v>
+        <v>3.0793823245860109E-4</v>
       </c>
       <c r="F16">
-        <v>5.0431376769967992E-4</v>
+        <v>3.0571979678438179E-3</v>
       </c>
       <c r="G16">
-        <v>9.8827089825570777E-5</v>
+        <v>1.2842058687068049E-4</v>
       </c>
       <c r="H16">
-        <v>5.4408003453239671E-8</v>
+        <v>4.8377007631817239E-4</v>
       </c>
       <c r="I16">
-        <v>1.3798546326274489E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3.9773268634912722E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1185,10 +1176,10 @@
         <v>9</v>
       </c>
       <c r="I17">
-        <v>2.8512730788516249E-7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.23690261624555059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1214,10 +1205,10 @@
         <v>9</v>
       </c>
       <c r="I18">
-        <v>1.4419316495745359E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.870317578115346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>26</v>
@@ -1229,22 +1220,22 @@
         <v>20</v>
       </c>
       <c r="E19">
-        <v>3.0095936580087088E-3</v>
+        <v>9.3637492199043009E-5</v>
       </c>
       <c r="F19">
-        <v>1.1936341576923731E-2</v>
+        <v>3.0358828771486678E-4</v>
       </c>
       <c r="G19">
-        <v>1.2782341218603541E-7</v>
+        <v>4.8100038511227908E-5</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.610668409397829E-5</v>
       </c>
       <c r="I19">
-        <v>1.494606305834462E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4.7143250251911598E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1273,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1313,19 +1304,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1336,7 +1327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1344,16 +1335,16 @@
         <v>32</v>
       </c>
       <c r="C2">
-        <v>9.269847497996393</v>
+        <v>1744.635973702425</v>
       </c>
       <c r="D2">
-        <v>6.3016435828342514</v>
+        <v>4145.6555445762933</v>
       </c>
       <c r="E2">
-        <v>15.57149108083064</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5890.2915182787183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1367,10 +1358,10 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>0.99999999602868217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.2238658331300056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -1384,10 +1375,10 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>3.9713178831051098E-9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.77613416686999426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1395,16 +1386,16 @@
         <v>34</v>
       </c>
       <c r="C5">
-        <v>0.2324169249241341</v>
+        <v>0.45639142701896229</v>
       </c>
       <c r="D5">
-        <v>0.99339387167484638</v>
+        <v>0.59078633885882093</v>
       </c>
       <c r="E5">
-        <v>0.54037750932056572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.55098012601676094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -1418,7 +1409,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>2.3919165746897222</v>
+        <v>9.5142131933168075E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/d_Multi-Energy-System/Results/EnergySystemSize.xlsx
+++ b/Scenarios/d_Multi-Energy-System/Results/EnergySystemSize.xlsx
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>195.4560998458297</v>
+        <v>321.27430408542767</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -572,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>516.53642135558437</v>
+        <v>1563.34285738159</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -595,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>100.9451392858868</v>
+        <v>41.727290178376848</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -606,19 +606,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>371.81385888386171</v>
+        <v>373.54426676601207</v>
       </c>
       <c r="D5">
-        <v>1337.1470847969431</v>
+        <v>1300.4665685661851</v>
       </c>
       <c r="E5">
-        <v>26.896924790169631</v>
+        <v>23.820181053154339</v>
       </c>
       <c r="F5">
-        <v>5.1072725901669092</v>
+        <v>5.4190855648690537</v>
       </c>
       <c r="G5">
-        <v>1740.9651410611409</v>
+        <v>1703.2501019502199</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -629,19 +629,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>1897.6263869653301</v>
+        <v>1888.6972656040009</v>
       </c>
       <c r="D6">
-        <v>6718.0676865350006</v>
+        <v>6482.1394777505348</v>
       </c>
       <c r="E6">
-        <v>133.7432264065381</v>
+        <v>119.0076541188225</v>
       </c>
       <c r="F6">
-        <v>51.305074254705097</v>
+        <v>43.856143302712887</v>
       </c>
       <c r="G6">
-        <v>8800.742374161573</v>
+        <v>8533.7005407760716</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -652,19 +652,19 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.28050726667307091</v>
+        <v>0.2303885826559503</v>
       </c>
       <c r="D7">
-        <v>0.49507006471808901</v>
+        <v>0.33781540548634859</v>
       </c>
       <c r="E7">
-        <v>0.1133838690152333</v>
+        <v>9.507690682051706E-2</v>
       </c>
       <c r="F7">
-        <v>0.34620475999856171</v>
+        <v>0.35111260183766341</v>
       </c>
       <c r="G7">
-        <v>1.235165960404955</v>
+        <v>1.0143934968004791</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -675,19 +675,19 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>14.707211338061191</v>
+        <v>14.731719124405579</v>
       </c>
       <c r="D8">
-        <v>146.01258264160171</v>
+        <v>179.86117105003339</v>
       </c>
       <c r="E8">
-        <v>6.1334011570611349</v>
+        <v>8.9565539283759108</v>
       </c>
       <c r="F8">
-        <v>23.10498665474374</v>
+        <v>25.881237177349391</v>
       </c>
       <c r="G8">
-        <v>189.95818179146781</v>
+        <v>229.43068128016429</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>4.3101027382668304</v>
+        <v>4.0883559545571311</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -794,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>0.39091219969165941</v>
+        <v>0.64254860817085535</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -821,7 +821,7 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>0.28409503174557138</v>
+        <v>0.85983857155987464</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -848,7 +848,7 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>2.0189027857177352E-2</v>
+        <v>8.3454580356753707E-3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -863,19 +863,19 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>0.1561618207312219</v>
+        <v>0.15688859204172509</v>
       </c>
       <c r="F6">
-        <v>0.56160177561471614</v>
+        <v>0.5461959587977977</v>
       </c>
       <c r="G6">
-        <v>1.129670841187125E-2</v>
+        <v>1.0004476042324821E-2</v>
       </c>
       <c r="H6">
-        <v>2.1450544878701019E-3</v>
+        <v>2.2760159372450031E-3</v>
       </c>
       <c r="I6">
-        <v>0.73120535924567931</v>
+        <v>0.71536504281909263</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -890,19 +890,19 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2.8050726667307081E-5</v>
+        <v>2.303885826559503E-5</v>
       </c>
       <c r="F7">
-        <v>4.9507006471808887E-5</v>
+        <v>3.3781540548634859E-5</v>
       </c>
       <c r="G7">
-        <v>1.133838690152333E-5</v>
+        <v>9.5076906820517066E-6</v>
       </c>
       <c r="H7">
-        <v>3.4620475999856173E-5</v>
+        <v>3.5111260183766333E-5</v>
       </c>
       <c r="I7">
-        <v>1.235165960404955E-4</v>
+        <v>1.014393496800479E-4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -917,19 +917,19 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>6.8314549930751867E-2</v>
+        <v>6.7993101561744027E-2</v>
       </c>
       <c r="F8">
-        <v>0.24185043671525999</v>
+        <v>0.23335702119901919</v>
       </c>
       <c r="G8">
-        <v>4.8147561506353713E-3</v>
+        <v>4.2842755482776114E-3</v>
       </c>
       <c r="H8">
-        <v>1.846982673169384E-3</v>
+        <v>1.5788211588976639E-3</v>
       </c>
       <c r="I8">
-        <v>0.31682672546981672</v>
+        <v>0.3072132194679385</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -944,19 +944,19 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1.4707211338061191E-3</v>
+        <v>1.4731719124405579E-3</v>
       </c>
       <c r="F9">
-        <v>1.460125826416017E-2</v>
+        <v>1.7986117105003339E-2</v>
       </c>
       <c r="G9">
-        <v>6.1334011570611351E-4</v>
+        <v>8.956553928375911E-4</v>
       </c>
       <c r="H9">
-        <v>2.3104986654743742E-3</v>
+        <v>2.5881237177349391E-3</v>
       </c>
       <c r="I9">
-        <v>1.8995818179146771E-2</v>
+        <v>2.2943068128016431E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -985,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="I10">
-        <v>0.1091317803695632</v>
+        <v>0.17938164538988791</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1012,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>7.9311407096009562E-2</v>
+        <v>0.24004294114833499</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1039,7 +1039,7 @@
         <v>9</v>
       </c>
       <c r="I12">
-        <v>2.8181066691220499E-2</v>
+        <v>1.164909529750042E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1054,19 +1054,19 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>3.2697017774566579E-2</v>
+        <v>3.2849188480224972E-2</v>
       </c>
       <c r="F13">
-        <v>0.1175876610141957</v>
+        <v>0.114362005319764</v>
       </c>
       <c r="G13">
-        <v>2.365294372257539E-3</v>
+        <v>2.0947279523856042E-3</v>
       </c>
       <c r="H13">
-        <v>4.4912952723584552E-4</v>
+        <v>4.7655011453396723E-4</v>
       </c>
       <c r="I13">
-        <v>0.15309910268825569</v>
+        <v>0.14978247186690849</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1081,19 +1081,19 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>5.8732352385225169E-6</v>
+        <v>4.8238548621460264E-6</v>
       </c>
       <c r="F14">
-        <v>1.0365731284347661E-5</v>
+        <v>7.0731477553150647E-6</v>
       </c>
       <c r="G14">
-        <v>2.3740209759215481E-6</v>
+        <v>1.9907114925432721E-6</v>
       </c>
       <c r="H14">
-        <v>7.2488032851485034E-6</v>
+        <v>7.3515632242273797E-6</v>
       </c>
       <c r="I14">
-        <v>2.5861790783940231E-5</v>
+        <v>2.1239277334231739E-5</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1108,19 +1108,19 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1.430363736083619E-2</v>
+        <v>1.423633279826232E-2</v>
       </c>
       <c r="F15">
-        <v>5.0638421036829771E-2</v>
+        <v>4.8860077541595527E-2</v>
       </c>
       <c r="G15">
-        <v>1.008109195323012E-3</v>
+        <v>8.9703765681803924E-4</v>
       </c>
       <c r="H15">
-        <v>3.8671952600935391E-4</v>
+        <v>3.3057211585787842E-4</v>
       </c>
       <c r="I15">
-        <v>6.6336887118998336E-2</v>
+        <v>6.432402011253377E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1135,19 +1135,19 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>3.0793823245860109E-4</v>
+        <v>3.0845137422524119E-4</v>
       </c>
       <c r="F16">
-        <v>3.0571979678438179E-3</v>
+        <v>3.7659165852703918E-3</v>
       </c>
       <c r="G16">
-        <v>1.2842058687068049E-4</v>
+        <v>1.875314988155875E-4</v>
       </c>
       <c r="H16">
-        <v>4.8377007631817239E-4</v>
+        <v>5.4189895331207237E-4</v>
       </c>
       <c r="I16">
-        <v>3.9773268634912722E-3</v>
+        <v>4.8037984116232916E-3</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1176,7 +1176,7 @@
         <v>9</v>
       </c>
       <c r="I17">
-        <v>0.23690261624555059</v>
+        <v>0.41575913043545581</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1205,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="I18">
-        <v>1.870317578115346</v>
+        <v>0.46592087862767151</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1220,19 +1220,19 @@
         <v>20</v>
       </c>
       <c r="E19">
-        <v>9.3637492199043009E-5</v>
+        <v>9.1567555003887465E-5</v>
       </c>
       <c r="F19">
-        <v>3.0358828771486678E-4</v>
+        <v>1.6058293988372349E-4</v>
       </c>
       <c r="G19">
-        <v>4.8100038511227908E-5</v>
+        <v>3.7486549395505672E-5</v>
       </c>
       <c r="H19">
-        <v>2.610668409397829E-5</v>
+        <v>2.5689414465042159E-5</v>
       </c>
       <c r="I19">
-        <v>4.7143250251911598E-4</v>
+        <v>3.1532645874815881E-4</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1335,13 +1335,13 @@
         <v>32</v>
       </c>
       <c r="C2">
-        <v>1744.635973702425</v>
+        <v>1086.4319249187599</v>
       </c>
       <c r="D2">
-        <v>4145.6555445762933</v>
+        <v>4064.750393294597</v>
       </c>
       <c r="E2">
-        <v>5890.2915182787183</v>
+        <v>5151.1823182133576</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1358,7 +1358,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>0.2238658331300056</v>
+        <v>6.3783615377350125E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1375,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>0.77613416686999426</v>
+        <v>0.93621638462264989</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1386,13 +1386,13 @@
         <v>34</v>
       </c>
       <c r="C5">
-        <v>0.45639142701896229</v>
+        <v>0.73289166435918818</v>
       </c>
       <c r="D5">
-        <v>0.59078633885882093</v>
+        <v>0.60254540239181953</v>
       </c>
       <c r="E5">
-        <v>0.55098012601676094</v>
+        <v>0.63003663286030165</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1409,7 +1409,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>9.5142131933168075E-2</v>
+        <v>9.0247245886914004E-2</v>
       </c>
     </row>
   </sheetData>
